--- a/Trenes.xlsx
+++ b/Trenes.xlsx
@@ -12,7 +12,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+  <si>
+    <t>DVMTM</t>
+  </si>
+  <si>
+    <t>DPIDC</t>
+  </si>
+  <si>
+    <t>DCFWP</t>
+  </si>
+  <si>
+    <t>DESIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>DRZRW</t>
+  </si>
   <si>
     <t>100</t>
   </si>
@@ -21,21 +39,6 @@
   </si>
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>DVMTM</t>
-  </si>
-  <si>
-    <t>DESIM</t>
-  </si>
-  <si>
-    <t>DRZRW</t>
-  </si>
-  <si>
-    <t>DPIDC</t>
-  </si>
-  <si>
-    <t>DCFWP</t>
   </si>
 </sst>
 </file>
@@ -88,42 +91,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
+      <c r="B1" t="s" s="0">
+        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
+      <c r="B2" t="s" s="0">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>5</v>
+        <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
+      <c r="B3" t="s" s="0">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
+      <c r="B4" t="s" s="0">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>2</v>
+      <c r="B5" t="s" s="0">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Trenes.xlsx
+++ b/Trenes.xlsx
@@ -12,25 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
-  <si>
-    <t>DVMTM</t>
-  </si>
-  <si>
-    <t>DPIDC</t>
-  </si>
-  <si>
-    <t>DCFWP</t>
-  </si>
-  <si>
-    <t>DESIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>DRZRW</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>100</t>
   </si>
@@ -39,6 +21,24 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>DVMTM</t>
+  </si>
+  <si>
+    <t>DESIM</t>
+  </si>
+  <si>
+    <t>DRZRW</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>DPIDC</t>
+  </si>
+  <si>
+    <t>DCFWP</t>
   </si>
 </sst>
 </file>
@@ -91,42 +91,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>6</v>
+      <c r="B2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>3</v>
+        <v>7</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>7</v>
+      <c r="B4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>5</v>
+        <v>8</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>8</v>
+      <c r="B5" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Trenes.xlsx
+++ b/Trenes.xlsx
@@ -12,33 +12,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+  <si>
+    <t>DVMTM</t>
+  </si>
   <si>
     <t>100</t>
+  </si>
+  <si>
+    <t>DESIM</t>
+  </si>
+  <si>
+    <t>DPIDC</t>
   </si>
   <si>
     <t>75</t>
   </si>
   <si>
+    <t>DCFWP</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>DVMTM</t>
-  </si>
-  <si>
-    <t>DESIM</t>
-  </si>
-  <si>
     <t>DRZRW</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>DPIDC</t>
-  </si>
-  <si>
-    <t>DCFWP</t>
   </si>
 </sst>
 </file>
@@ -91,42 +88,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
+      <c r="B2" t="s" s="0">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>5</v>
+        <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
+      <c r="B3" t="s" s="0">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
+      <c r="B4" t="s" s="0">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>2</v>
+      <c r="B5" t="s" s="0">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Trenes.xlsx
+++ b/Trenes.xlsx
@@ -12,15 +12,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
-    <t>DVMTM</t>
+    <t>DVPOA</t>
   </si>
   <si>
     <t>100</t>
   </si>
   <si>
-    <t>DESIM</t>
+    <t>DVPOM</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>DVSOA</t>
+  </si>
+  <si>
+    <t>DVSOM</t>
+  </si>
+  <si>
+    <t>50</t>
   </si>
   <si>
     <t>DPIDC</t>
@@ -30,9 +42,6 @@
   </si>
   <si>
     <t>DCFWP</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>DRZRW</t>
@@ -80,7 +89,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -99,15 +108,15 @@
         <v>2</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -123,6 +132,22 @@
         <v>7</v>
       </c>
       <c r="B5" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>1</v>
       </c>
     </row>
